--- a/Jira-Auto/Auto-Jira/bin/Release/Template/Test Execution template.xlsx
+++ b/Jira-Auto/Auto-Jira/bin/Release/Template/Test Execution template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12510"/>
+    <workbookView windowWidth="28800" windowHeight="12510" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Execution" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
   <si>
     <t>Summary</t>
   </si>
@@ -47,10 +47,37 @@
     <t>Assginee</t>
   </si>
   <si>
-    <t>Test execution manualy 04</t>
+    <t>Sub Test execution manualy 04</t>
+  </si>
+  <si>
+    <t>NR</t>
+  </si>
+  <si>
+    <t>BACK</t>
+  </si>
+  <si>
+    <t>release-v20.06</t>
+  </si>
+  <si>
+    <t>Critical</t>
+  </si>
+  <si>
+    <t>dev</t>
   </si>
   <si>
     <t>rec3</t>
+  </si>
+  <si>
+    <t>TestExecutionKey</t>
+  </si>
+  <si>
+    <t>Sub test execution manualy</t>
+  </si>
+  <si>
+    <t>Sub test execution</t>
+  </si>
+  <si>
+    <t>RFH-5653</t>
   </si>
 </sst>
 </file>
@@ -58,10 +85,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -84,9 +111,29 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -108,67 +155,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Arial"/>
@@ -176,18 +162,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -199,6 +194,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Arial"/>
@@ -206,30 +209,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,13 +271,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -262,73 +433,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,91 +445,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,16 +490,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,26 +519,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,6 +560,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -541,160 +577,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -965,8 +992,8 @@
   </sheetPr>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
@@ -1019,8 +1046,23 @@
       <c r="A2" t="s">
         <v>10</v>
       </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1034,27 +1076,26 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="9.57142857142857" customWidth="1"/>
-    <col min="2" max="2" width="11.4285714285714" customWidth="1"/>
+    <col min="1" max="1" width="26.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="18.5714285714286" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
     <col min="4" max="4" width="12.4285714285714" customWidth="1"/>
-    <col min="5" max="5" width="14.5714285714286" customWidth="1"/>
-    <col min="6" max="6" width="7.71428571428571" customWidth="1"/>
-    <col min="7" max="7" width="12.4285714285714" customWidth="1"/>
-    <col min="8" max="8" width="16.7142857142857" customWidth="1"/>
-    <col min="9" max="9" width="10.2857142857143" customWidth="1"/>
-    <col min="10" max="10" width="9.42857142857143" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="12.8571428571429" customWidth="1"/>
+    <col min="7" max="7" width="16.7142857142857" customWidth="1"/>
+    <col min="8" max="8" width="10.2857142857143" customWidth="1"/>
+    <col min="9" max="9" width="9.42857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1068,22 +1109,45 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
+    </row>
+    <row r="2" customHeight="1" spans="1:6">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Jira-Auto/Auto-Jira/bin/Release/Template/Test Execution template.xlsx
+++ b/Jira-Auto/Auto-Jira/bin/Release/Template/Test Execution template.xlsx
@@ -4,18 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12510" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12510"/>
   </bookViews>
   <sheets>
     <sheet name="Test Execution" sheetId="1" r:id="rId1"/>
-    <sheet name="Sub-Test Execution" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Summary</t>
   </si>
@@ -47,37 +46,22 @@
     <t>Assginee</t>
   </si>
   <si>
-    <t>Sub Test execution manualy 04</t>
-  </si>
-  <si>
-    <t>NR</t>
-  </si>
-  <si>
-    <t>BACK</t>
-  </si>
-  <si>
-    <t>release-v20.06</t>
+    <t>[ALL][AGENCY][Test][Desktop][Test]</t>
+  </si>
+  <si>
+    <t>MIGRATION_ONETEAM</t>
+  </si>
+  <si>
+    <t>release-v20.10</t>
   </si>
   <si>
     <t>Critical</t>
   </si>
   <si>
-    <t>dev</t>
-  </si>
-  <si>
-    <t>rec3</t>
-  </si>
-  <si>
-    <t>TestExecutionKey</t>
-  </si>
-  <si>
-    <t>Sub test execution manualy</t>
-  </si>
-  <si>
-    <t>Sub test execution</t>
-  </si>
-  <si>
-    <t>RFH-5653</t>
+    <t>REC2</t>
+  </si>
+  <si>
+    <t>AGENCY-6276</t>
   </si>
 </sst>
 </file>
@@ -85,12 +69,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -100,26 +84,58 @@
     <font>
       <b/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,16 +149,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -155,30 +192,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Arial"/>
@@ -194,21 +207,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -217,38 +215,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,9 +225,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -271,6 +248,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -283,25 +338,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,19 +392,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,19 +410,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,96 +429,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,11 +457,59 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,17 +529,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,202 +554,160 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -992,162 +971,77 @@
   </sheetPr>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="34.1428571428571" customWidth="1"/>
     <col min="2" max="2" width="11.4285714285714" customWidth="1"/>
-    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="3" max="3" width="23.2857142857143" customWidth="1"/>
     <col min="4" max="4" width="12.4285714285714" customWidth="1"/>
     <col min="5" max="5" width="14.5714285714286" customWidth="1"/>
     <col min="6" max="6" width="7.71428571428571" customWidth="1"/>
     <col min="7" max="7" width="12.4285714285714" customWidth="1"/>
     <col min="8" max="8" width="16.7142857142857" customWidth="1"/>
-    <col min="9" max="9" width="10.2857142857143" customWidth="1"/>
+    <col min="9" max="9" width="17.8571428571429" customWidth="1"/>
     <col min="10" max="10" width="9.42857142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" spans="1:10">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:8">
-      <c r="A2" t="s">
+    <row r="2" customHeight="1" spans="1:9">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
         <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:K2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:K2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
-  <cols>
-    <col min="1" max="1" width="26.5714285714286" customWidth="1"/>
-    <col min="2" max="2" width="18.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="12.4285714285714" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="12.8571428571429" customWidth="1"/>
-    <col min="7" max="7" width="16.7142857142857" customWidth="1"/>
-    <col min="8" max="8" width="10.2857142857143" customWidth="1"/>
-    <col min="9" max="9" width="9.42857142857143" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:6">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
